--- a/Stock-XLSX/FF-EBonds/AAPL.xlsx
+++ b/Stock-XLSX/FF-EBonds/AAPL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb0b6f0298eff0f/Investing-Repo/Stock-XLSX/Freedom-Fund/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb0b6f0298eff0f/Investing-Repo/Stock-XLSX/FF-EBonds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{7D3482E5-CEA2-4CAA-8F80-56CF0FCF7587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{612F24A7-B397-42CA-B1F0-D89EF1F82F3B}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{7D3482E5-CEA2-4CAA-8F80-56CF0FCF7587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D50F1A86-0F39-4B50-A34C-8D05052E299F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="720" activeTab="6" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="720" activeTab="1" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
   </bookViews>
   <sheets>
     <sheet name="DYT" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="109">
   <si>
     <t>PriceMean</t>
   </si>
@@ -368,6 +368,9 @@
   <si>
     <t>2021-09</t>
   </si>
+  <si>
+    <t>Ratio</t>
+  </si>
 </sst>
 </file>
 
@@ -489,7 +492,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -524,6 +527,7 @@
     <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -539,14 +543,30 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="46">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -736,14 +756,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="4" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1264,26 +1276,26 @@
   <autoFilter ref="B3:K33" xr:uid="{CC465B3B-07DF-45B2-A4C7-6673C75C36E3}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{C9E7A322-3B72-4FD9-A543-8D859BB5B277}" name="CY"/>
-    <tableColumn id="2" xr3:uid="{CC7E0DC4-C81C-4EAB-B498-D06AAA4CFA12}" name="PriceMin" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{59C0C3F5-1927-4D3A-A9F5-9442547A4B36}" name="PriceMax" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{CE3C0130-A44E-4882-985C-70F35028953D}" name="PriceMean" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{8EF5D246-211D-4EE5-99F0-22A9BA1261B6}" name="PriceMedian" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{60F9DAEA-0E91-491A-918D-91BC5E3E4832}" name="DivLow" dataDxfId="40" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{131C0FD6-FF3D-40D2-86BF-0CA31FEFDFB4}" name="DivHigh" dataDxfId="39" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{3A4DF5EF-35AA-4285-9F70-645E7BDAD0C5}" name="DivMean" dataDxfId="38" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{B95D3B00-F5E6-483D-8585-A79B6158BCB3}" name="DivMedian" dataDxfId="37" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{C10088D7-01FC-4262-A4A2-81AA879ABE83}" name="10YT" dataDxfId="36" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{CC7E0DC4-C81C-4EAB-B498-D06AAA4CFA12}" name="PriceMin" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{59C0C3F5-1927-4D3A-A9F5-9442547A4B36}" name="PriceMax" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{CE3C0130-A44E-4882-985C-70F35028953D}" name="PriceMean" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{8EF5D246-211D-4EE5-99F0-22A9BA1261B6}" name="PriceMedian" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{60F9DAEA-0E91-491A-918D-91BC5E3E4832}" name="DivLow" dataDxfId="41" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{131C0FD6-FF3D-40D2-86BF-0CA31FEFDFB4}" name="DivHigh" dataDxfId="40" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{3A4DF5EF-35AA-4285-9F70-645E7BDAD0C5}" name="DivMean" dataDxfId="39" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{B95D3B00-F5E6-483D-8585-A79B6158BCB3}" name="DivMedian" dataDxfId="38" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{C10088D7-01FC-4262-A4A2-81AA879ABE83}" name="10YT" dataDxfId="37" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3ED64007-492B-456F-8063-EF02A084B9CB}" name="Table1811" displayName="Table1811" ref="K6:L36" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3ED64007-492B-456F-8063-EF02A084B9CB}" name="Table1811" displayName="Table1811" ref="K6:L36" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="K6:L36" xr:uid="{3ED64007-492B-456F-8063-EF02A084B9CB}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{4B2C27D7-EBA6-4D7A-AFDB-FED4AF0B645A}" name="Year"/>
-    <tableColumn id="2" xr3:uid="{92AF3836-C75C-4E36-8604-B5FA0784AC0B}" name="Rate" dataDxfId="0" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{92AF3836-C75C-4E36-8604-B5FA0784AC0B}" name="Rate" dataDxfId="2" dataCellStyle="Percent">
       <calculatedColumnFormula>($L$4/$L$5)^(1/K7)-1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1292,28 +1304,29 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{10671DA0-6975-463D-88D8-DF5B851D74DD}" name="Table2" displayName="Table2" ref="B3:T34" totalsRowShown="0">
-  <autoFilter ref="B3:T34" xr:uid="{10671DA0-6975-463D-88D8-DF5B851D74DD}"/>
-  <tableColumns count="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{10671DA0-6975-463D-88D8-DF5B851D74DD}" name="Table2" displayName="Table2" ref="B3:U34" totalsRowShown="0">
+  <autoFilter ref="B3:U34" xr:uid="{10671DA0-6975-463D-88D8-DF5B851D74DD}"/>
+  <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{E95A5EA6-8C37-450D-BF76-C50C15336E54}" name="FY"/>
-    <tableColumn id="2" xr3:uid="{8747F51E-820F-4468-BCC3-48363D5907BA}" name="PriceLow" dataDxfId="35" dataCellStyle="Currency"/>
-    <tableColumn id="3" xr3:uid="{0384F1EE-FFB5-407C-BEE1-9ACA12902632}" name="PriceHigh" dataDxfId="34" dataCellStyle="Currency"/>
+    <tableColumn id="2" xr3:uid="{8747F51E-820F-4468-BCC3-48363D5907BA}" name="PriceLow" dataDxfId="36" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{0384F1EE-FFB5-407C-BEE1-9ACA12902632}" name="PriceHigh" dataDxfId="35" dataCellStyle="Currency"/>
     <tableColumn id="4" xr3:uid="{CB7E9246-F4BD-4729-AEEF-6B492176E463}" name="Rev" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{38E590BD-6779-455E-AAD6-D6BF73040176}" name="RevLow" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{A824D407-B985-4B0A-963D-1C4B29E61195}" name="RevHigh" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{38E590BD-6779-455E-AAD6-D6BF73040176}" name="RevLow" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{A824D407-B985-4B0A-963D-1C4B29E61195}" name="RevHigh" dataDxfId="33"/>
     <tableColumn id="7" xr3:uid="{8449A9C0-E2CF-4912-B46C-514654E50275}" name="FCF" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{05F0B1A5-314B-4E98-8ECF-282F17A63780}" name="FCFLow" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{2F81A370-4427-43EF-9614-E702E70853F8}" name="FCFHigh" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{05F0B1A5-314B-4E98-8ECF-282F17A63780}" name="FCFLow" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{2F81A370-4427-43EF-9614-E702E70853F8}" name="FCFHigh" dataDxfId="31"/>
     <tableColumn id="10" xr3:uid="{C216ACE0-25C2-44B8-9536-29C417ACD356}" name="EPS" dataCellStyle="Currency"/>
-    <tableColumn id="11" xr3:uid="{0194C2E4-463D-4C97-B0B9-2713EB0DADE9}" name="EPSLow" dataDxfId="29"/>
-    <tableColumn id="12" xr3:uid="{7E27F257-4F4B-47A6-BE74-21F38CA09F32}" name="EPSHigh" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{0194C2E4-463D-4C97-B0B9-2713EB0DADE9}" name="EPSLow" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{7E27F257-4F4B-47A6-BE74-21F38CA09F32}" name="EPSHigh" dataDxfId="29"/>
     <tableColumn id="13" xr3:uid="{62E4CEDC-B5C5-4284-A3D3-670D7BC4FD02}" name="Div" dataCellStyle="Currency"/>
-    <tableColumn id="14" xr3:uid="{EB74DD92-9E7F-48A7-AE9F-413C8D7251CD}" name="DivLow" dataDxfId="27"/>
-    <tableColumn id="15" xr3:uid="{770C5EEB-09CD-42F9-842E-34230217C9C6}" name="DivHigh" dataDxfId="26"/>
-    <tableColumn id="16" xr3:uid="{E6FED66A-5F7A-45B1-8AE3-DC2E925490AF}" name="RevGro" dataDxfId="25" dataCellStyle="Percent"/>
-    <tableColumn id="17" xr3:uid="{10B36EBE-D179-42F0-91B7-35130E27E2E4}" name="FCFGro" dataDxfId="24" dataCellStyle="Percent"/>
-    <tableColumn id="18" xr3:uid="{01FB4025-6FED-4479-9C79-4C9929B4E07E}" name="EPSGro" dataDxfId="23" dataCellStyle="Percent"/>
-    <tableColumn id="19" xr3:uid="{A0F36E0A-BED1-4884-8B05-429AC70F5C35}" name="DivGro" dataDxfId="22" dataCellStyle="Percent"/>
+    <tableColumn id="14" xr3:uid="{EB74DD92-9E7F-48A7-AE9F-413C8D7251CD}" name="DivLow" dataDxfId="28"/>
+    <tableColumn id="15" xr3:uid="{770C5EEB-09CD-42F9-842E-34230217C9C6}" name="DivHigh" dataDxfId="27"/>
+    <tableColumn id="16" xr3:uid="{E6FED66A-5F7A-45B1-8AE3-DC2E925490AF}" name="RevGro" dataDxfId="26" dataCellStyle="Percent"/>
+    <tableColumn id="17" xr3:uid="{10B36EBE-D179-42F0-91B7-35130E27E2E4}" name="FCFGro" dataDxfId="25" dataCellStyle="Percent"/>
+    <tableColumn id="18" xr3:uid="{01FB4025-6FED-4479-9C79-4C9929B4E07E}" name="EPSGro" dataDxfId="24" dataCellStyle="Percent"/>
+    <tableColumn id="19" xr3:uid="{A0F36E0A-BED1-4884-8B05-429AC70F5C35}" name="DivGro" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="20" xr3:uid="{53694558-7CC7-4704-A41C-6D84B7333578}" name="Ratio" dataDxfId="0" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1327,21 +1340,21 @@
     <tableColumn id="2" xr3:uid="{0100CB9B-0B1E-4AE3-A93A-157826699440}" name="Revenue" dataCellStyle="Currency"/>
     <tableColumn id="3" xr3:uid="{8995E4D4-8874-461E-93C5-327ACC075324}" name="COGS" dataCellStyle="Currency"/>
     <tableColumn id="4" xr3:uid="{CF0B1E73-E41D-40D1-BBF1-13908B9B0BB1}" name="GrossProfit" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{CBBA3C59-2213-45FC-9426-A68FF4739382}" name="GPM" dataDxfId="21" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{CBBA3C59-2213-45FC-9426-A68FF4739382}" name="GPM" dataDxfId="23" dataCellStyle="Percent"/>
     <tableColumn id="6" xr3:uid="{BBED7933-CE88-4919-98AC-D952F483A7DC}" name="OperatingProfit" dataCellStyle="Currency"/>
     <tableColumn id="7" xr3:uid="{05C2A352-ECAB-468A-89F8-6C1DCCAB2D7C}" name="OPEX" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{1FE6E753-9C99-4EE3-AF59-80A8E0984E8C}" name="OPM" dataDxfId="20" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{1FE6E753-9C99-4EE3-AF59-80A8E0984E8C}" name="OPM" dataDxfId="22" dataCellStyle="Percent"/>
     <tableColumn id="9" xr3:uid="{6F33ACA0-58FC-4A42-AE23-29CB12B46808}" name="NetProfit" dataCellStyle="Currency"/>
-    <tableColumn id="10" xr3:uid="{C35EB3C6-5BDB-4D32-AE01-CD9DB9910314}" name="NetMargin" dataDxfId="19" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{C35EB3C6-5BDB-4D32-AE01-CD9DB9910314}" name="NetMargin" dataDxfId="21" dataCellStyle="Percent"/>
     <tableColumn id="11" xr3:uid="{F0364200-1EE9-45E1-B7A7-2B6C5AC7A838}" name="CashFromOps" dataCellStyle="Currency"/>
-    <tableColumn id="12" xr3:uid="{0119C3F0-E3BA-465F-BA8C-1C6E43BFD01B}" name="CFOMargin" dataDxfId="18" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{0119C3F0-E3BA-465F-BA8C-1C6E43BFD01B}" name="CFOMargin" dataDxfId="20" dataCellStyle="Percent"/>
     <tableColumn id="13" xr3:uid="{A8179D66-84F1-4F36-8FB7-10813A416F83}" name="CAPEX" dataCellStyle="Currency"/>
-    <tableColumn id="14" xr3:uid="{AA40C489-FB64-4695-8679-DF4FA0272927}" name="CapexMargin" dataDxfId="17" dataCellStyle="Percent"/>
+    <tableColumn id="14" xr3:uid="{AA40C489-FB64-4695-8679-DF4FA0272927}" name="CapexMargin" dataDxfId="19" dataCellStyle="Percent"/>
     <tableColumn id="15" xr3:uid="{343D3F24-35EA-43E4-9FF6-71A091DF978D}" name="FCF" dataCellStyle="Currency"/>
-    <tableColumn id="16" xr3:uid="{A0353AB7-F60E-4E4E-9A76-3F64464B1E0E}" name="FCFMargin" dataDxfId="16" dataCellStyle="Percent"/>
+    <tableColumn id="16" xr3:uid="{A0353AB7-F60E-4E4E-9A76-3F64464B1E0E}" name="FCFMargin" dataDxfId="18" dataCellStyle="Percent"/>
     <tableColumn id="17" xr3:uid="{06343001-9D9F-49FB-B0BE-9993266C63C8}" name="Dividends" dataCellStyle="Currency"/>
-    <tableColumn id="18" xr3:uid="{94B42F0E-2425-4CD1-A347-8FD257F65F7A}" name="DivMargin" dataDxfId="15" dataCellStyle="Percent"/>
-    <tableColumn id="19" xr3:uid="{A7B0613E-2510-403B-84F1-CC47FA5761A0}" name="DivFCF" dataDxfId="14" dataCellStyle="Percent"/>
+    <tableColumn id="18" xr3:uid="{94B42F0E-2425-4CD1-A347-8FD257F65F7A}" name="DivMargin" dataDxfId="17" dataCellStyle="Percent"/>
+    <tableColumn id="19" xr3:uid="{A7B0613E-2510-403B-84F1-CC47FA5761A0}" name="DivFCF" dataDxfId="16" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1353,14 +1366,14 @@
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{62EBC43D-E479-41D4-A87F-392537BB888A}" name="Fiscal Year"/>
     <tableColumn id="2" xr3:uid="{B44E26B7-745B-4E98-BAD6-D6759FA4E6D3}" name="Revenue" dataCellStyle="Currency"/>
-    <tableColumn id="7" xr3:uid="{8772C3DC-BEB0-4C99-B4C2-26488FFA7EFA}" name="FCF" dataDxfId="13" dataCellStyle="Currency"/>
+    <tableColumn id="7" xr3:uid="{8772C3DC-BEB0-4C99-B4C2-26488FFA7EFA}" name="FCF" dataDxfId="15" dataCellStyle="Currency"/>
     <tableColumn id="4" xr3:uid="{79A83570-1D08-4443-87B5-EFEA379F44BA}" name="Dividend" dataCellStyle="Currency"/>
     <tableColumn id="8" xr3:uid="{2D92246E-BF59-46D6-A0EC-301AE06C6133}" name="MarketValue" dataCellStyle="Currency"/>
     <tableColumn id="10" xr3:uid="{B0D51114-3CC5-4A00-9EB3-FC1FE1BD06C4}" name="SharesOutstanding"/>
-    <tableColumn id="11" xr3:uid="{58A6D5ED-FBAA-4549-8852-30F681A965E9}" name="ShareGro" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{90D268FB-EEBA-43ED-973B-1C46E55CA5B7}" name="RevGro" dataDxfId="11" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{D11E9BA3-DAAF-47B8-A118-CF07526260D6}" name="DivGro" dataDxfId="10" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{D77C996E-20E0-4B4F-8363-FC1AB4244869}" name="MarketGro" dataDxfId="9" dataCellStyle="Currency"/>
+    <tableColumn id="11" xr3:uid="{58A6D5ED-FBAA-4549-8852-30F681A965E9}" name="ShareGro" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{90D268FB-EEBA-43ED-973B-1C46E55CA5B7}" name="RevGro" dataDxfId="13" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{D11E9BA3-DAAF-47B8-A118-CF07526260D6}" name="DivGro" dataDxfId="12" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{D77C996E-20E0-4B4F-8363-FC1AB4244869}" name="MarketGro" dataDxfId="11" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1391,7 +1404,7 @@
     <tableColumn id="3" xr3:uid="{E955993E-53F9-4AAD-87CE-198ED5D46364}" name="FCF" dataCellStyle="Currency"/>
     <tableColumn id="4" xr3:uid="{320CA921-01B8-4075-BDA9-DB5548FA3C37}" name="CashAndEquivalents" dataCellStyle="Currency"/>
     <tableColumn id="5" xr3:uid="{1648A547-B40B-4FA2-B2E3-03EAAB8B9897}" name="MarketSecurities" dataCellStyle="Currency"/>
-    <tableColumn id="11" xr3:uid="{09B14EEC-9DEF-4FA6-931B-74E0BFE5D8B1}" name="TotalCash" dataDxfId="8" dataCellStyle="Currency"/>
+    <tableColumn id="11" xr3:uid="{09B14EEC-9DEF-4FA6-931B-74E0BFE5D8B1}" name="TotalCash" dataDxfId="10" dataCellStyle="Currency"/>
     <tableColumn id="6" xr3:uid="{3052AD93-48CF-4E86-96B4-BE4CE7B738DF}" name="Treasury" dataCellStyle="Currency"/>
     <tableColumn id="7" xr3:uid="{6A48522D-DDAB-4D51-9B64-D72F57CD0E4B}" name="CurrentAssets" dataCellStyle="Currency"/>
     <tableColumn id="8" xr3:uid="{E91D7D1C-50C8-4435-B4AE-108CE2D2039E}" name="LongAssets" dataCellStyle="Currency"/>
@@ -1410,7 +1423,7 @@
     <tableColumn id="1" xr3:uid="{5FDF1320-5B10-468E-A1FB-4CC34F988AF8}" name="Year"/>
     <tableColumn id="2" xr3:uid="{2B1F9B0E-2EB4-4DD7-B95A-42CBBE4E9A26}" name="Div" dataCellStyle="Currency"/>
     <tableColumn id="3" xr3:uid="{F8D5CBD2-C854-43E6-98C3-6FCD800ECAB2}" name="PriceMedian" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{B71715D7-F5E8-42E7-93CA-1A9118BEE218}" name="YOC" dataDxfId="7" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{B71715D7-F5E8-42E7-93CA-1A9118BEE218}" name="YOC" dataDxfId="9" dataCellStyle="Percent">
       <calculatedColumnFormula>Table7[[#This Row],[Div]]/Table7[[#This Row],[PriceMedian]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1419,11 +1432,11 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6B075F70-03FD-4F18-974B-6A1E42927185}" name="Table17" displayName="Table17" ref="C6:D36" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6B075F70-03FD-4F18-974B-6A1E42927185}" name="Table17" displayName="Table17" ref="C6:D36" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7">
   <autoFilter ref="C6:D36" xr:uid="{6B075F70-03FD-4F18-974B-6A1E42927185}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{17720CF0-4C15-4B55-BC81-0E3781C7BF22}" name="Year"/>
-    <tableColumn id="2" xr3:uid="{01BA4252-FBF2-4A6D-B5F6-D6E00AA2DE50}" name="FV" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{01BA4252-FBF2-4A6D-B5F6-D6E00AA2DE50}" name="FV" dataDxfId="6">
       <calculatedColumnFormula>$D$4*(1+$D$5)^C7</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1432,11 +1445,11 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{503BFDBB-B7BD-4D9C-A28E-B70077814031}" name="Table1815" displayName="Table1815" ref="G6:H36" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{503BFDBB-B7BD-4D9C-A28E-B70077814031}" name="Table1815" displayName="Table1815" ref="G6:H36" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="G6:H36" xr:uid="{503BFDBB-B7BD-4D9C-A28E-B70077814031}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{56FDB9CA-94AE-4A82-9B0D-0C0A9E6D92D9}" name="Year"/>
-    <tableColumn id="2" xr3:uid="{B2FB668A-126F-47CB-BD30-804E63E9DC1D}" name="FV" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{B2FB668A-126F-47CB-BD30-804E63E9DC1D}" name="FV" dataDxfId="4">
       <calculatedColumnFormula>$H$4/(1+$H$5)^G7</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1744,7 +1757,7 @@
   <dimension ref="B3:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:F33"/>
+      <selection activeCell="J30" sqref="J30:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2770,10 +2783,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6D69F2-57A8-4AF2-8759-F26D94DB8BCC}">
-  <dimension ref="B3:T34"/>
+  <dimension ref="B3:U34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21:I32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2794,7 +2807,7 @@
     <col min="20" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -2852,8 +2865,11 @@
       <c r="T3" s="26" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U3" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>77</v>
       </c>
@@ -2915,8 +2931,12 @@
         <f>(Table2[[#This Row],[Div]]-N3)/N3</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U4" s="40">
+        <f>Table2[[#This Row],[Div]]/Table2[[#This Row],[FCF]]</f>
+        <v>7.5471698113207544E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>78</v>
       </c>
@@ -2978,8 +2998,12 @@
         <f>(Table2[[#This Row],[Div]]-N4)/N4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U5" s="40">
+        <f>Table2[[#This Row],[Div]]/Table2[[#This Row],[FCF]]</f>
+        <v>-6.25E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>79</v>
       </c>
@@ -3041,8 +3065,12 @@
         <f>(Table2[[#This Row],[Div]]-N5)/N5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U6" s="40">
+        <f>Table2[[#This Row],[Div]]/Table2[[#This Row],[FCF]]</f>
+        <v>9.3023255813953501E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>80</v>
       </c>
@@ -3104,8 +3132,12 @@
         <f>(Table2[[#This Row],[Div]]-N6)/N6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U7" s="40">
+        <f>Table2[[#This Row],[Div]]/Table2[[#This Row],[FCF]]</f>
+        <v>-0.13793103448275862</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>81</v>
       </c>
@@ -3167,8 +3199,12 @@
         <f>(Table2[[#This Row],[Div]]-N7)/N7</f>
         <v>-0.75</v>
       </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U8" s="40">
+        <f>Table2[[#This Row],[Div]]/Table2[[#This Row],[FCF]]</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>82</v>
       </c>
@@ -3230,8 +3266,12 @@
         <f>(Table2[[#This Row],[Div]]-N8)/N8</f>
         <v>-1</v>
       </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="40">
+        <f>Table2[[#This Row],[Div]]/Table2[[#This Row],[FCF]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3333,12 @@
         <f>(Table2[[#This Row],[Div]]-N9)/N9</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U10" s="40">
+        <f>Table2[[#This Row],[Div]]/Table2[[#This Row],[FCF]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>85</v>
       </c>
@@ -3356,8 +3400,12 @@
         <f>(Table2[[#This Row],[Div]]-N10)/N10</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U11" s="40">
+        <f>Table2[[#This Row],[Div]]/Table2[[#This Row],[FCF]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>86</v>
       </c>
@@ -3419,8 +3467,12 @@
         <f>(Table2[[#This Row],[Div]]-N11)/N11</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U12" s="40">
+        <f>Table2[[#This Row],[Div]]/Table2[[#This Row],[FCF]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>87</v>
       </c>
@@ -3482,8 +3534,12 @@
         <f>(Table2[[#This Row],[Div]]-N12)/N12</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U13" s="40">
+        <f>Table2[[#This Row],[Div]]/Table2[[#This Row],[FCF]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>88</v>
       </c>
@@ -3545,8 +3601,12 @@
         <f>(Table2[[#This Row],[Div]]-N13)/N13</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U14" s="40">
+        <f>Table2[[#This Row],[Div]]/Table2[[#This Row],[FCF]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>89</v>
       </c>
@@ -3608,8 +3668,12 @@
         <f>(Table2[[#This Row],[Div]]-N14)/N14</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U15" s="40">
+        <f>Table2[[#This Row],[Div]]/Table2[[#This Row],[FCF]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>90</v>
       </c>
@@ -3671,8 +3735,12 @@
         <f>(Table2[[#This Row],[Div]]-N15)/N15</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U16" s="40">
+        <f>Table2[[#This Row],[Div]]/Table2[[#This Row],[FCF]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>91</v>
       </c>
@@ -3734,8 +3802,12 @@
         <f>(Table2[[#This Row],[Div]]-N16)/N16</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U17" s="40">
+        <f>Table2[[#This Row],[Div]]/Table2[[#This Row],[FCF]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>92</v>
       </c>
@@ -3797,8 +3869,12 @@
         <f>(Table2[[#This Row],[Div]]-N17)/N17</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U18" s="40">
+        <f>Table2[[#This Row],[Div]]/Table2[[#This Row],[FCF]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>93</v>
       </c>
@@ -3860,8 +3936,12 @@
         <f>(Table2[[#This Row],[Div]]-N18)/N18</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U19" s="40">
+        <f>Table2[[#This Row],[Div]]/Table2[[#This Row],[FCF]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>94</v>
       </c>
@@ -3923,8 +4003,12 @@
         <f>(Table2[[#This Row],[Div]]-N19)/N19</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U20" s="40">
+        <f>Table2[[#This Row],[Div]]/Table2[[#This Row],[FCF]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>95</v>
       </c>
@@ -3986,8 +4070,12 @@
         <f>(Table2[[#This Row],[Div]]-N20)/N20</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U21" s="40">
+        <f>Table2[[#This Row],[Div]]/Table2[[#This Row],[FCF]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>96</v>
       </c>
@@ -4049,8 +4137,12 @@
         <f>(Table2[[#This Row],[Div]]-N21)/N21</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U22" s="40">
+        <f>Table2[[#This Row],[Div]]/Table2[[#This Row],[FCF]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>97</v>
       </c>
@@ -4112,8 +4204,12 @@
         <f>(Table2[[#This Row],[Div]]-N22)/N22</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U23" s="40">
+        <f>Table2[[#This Row],[Div]]/Table2[[#This Row],[FCF]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>98</v>
       </c>
@@ -4175,8 +4271,12 @@
         <f>(Table2[[#This Row],[Div]]-N23)/N23</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U24" s="40">
+        <f>Table2[[#This Row],[Div]]/Table2[[#This Row],[FCF]]</f>
+        <v>6.066411238825032E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>99</v>
       </c>
@@ -4238,8 +4338,12 @@
         <f>(Table2[[#This Row],[Div]]-N24)/N24</f>
         <v>3.284210526315789</v>
       </c>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U25" s="40">
+        <f>Table2[[#This Row],[Div]]/Table2[[#This Row],[FCF]]</f>
+        <v>0.23815096547688705</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>100</v>
       </c>
@@ -4301,8 +4405,12 @@
         <f>(Table2[[#This Row],[Div]]-N25)/N25</f>
         <v>0.11302211302211312</v>
       </c>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U26" s="40">
+        <f>Table2[[#This Row],[Div]]/Table2[[#This Row],[FCF]]</f>
+        <v>0.22227674190382732</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>101</v>
       </c>
@@ -4364,8 +4472,12 @@
         <f>(Table2[[#This Row],[Div]]-N26)/N26</f>
         <v>9.271523178807943E-2</v>
       </c>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U27" s="40">
+        <f>Table2[[#This Row],[Div]]/Table2[[#This Row],[FCF]]</f>
+        <v>0.16439721022915973</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>102</v>
       </c>
@@ -4427,8 +4539,12 @@
         <f>(Table2[[#This Row],[Div]]-N27)/N27</f>
         <v>0.10101010101010111</v>
       </c>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U28" s="40">
+        <f>Table2[[#This Row],[Div]]/Table2[[#This Row],[FCF]]</f>
+        <v>0.22409539473684212</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>103</v>
       </c>
@@ -4490,8 +4606,12 @@
         <f>(Table2[[#This Row],[Div]]-N28)/N28</f>
         <v>0.10091743119266043</v>
       </c>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U29" s="40">
+        <f>Table2[[#This Row],[Div]]/Table2[[#This Row],[FCF]]</f>
+        <v>0.2434077079107505</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>104</v>
       </c>
@@ -4553,8 +4673,12 @@
         <f>(Table2[[#This Row],[Div]]-N29)/N29</f>
         <v>0.13333333333333347</v>
       </c>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U30" s="40">
+        <f>Table2[[#This Row],[Div]]/Table2[[#This Row],[FCF]]</f>
+        <v>0.21210230817217718</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>105</v>
       </c>
@@ -4616,8 +4740,12 @@
         <f>(Table2[[#This Row],[Div]]-N30)/N30</f>
         <v>0.10294117647058816</v>
       </c>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U31" s="40">
+        <f>Table2[[#This Row],[Div]]/Table2[[#This Row],[FCF]]</f>
+        <v>0.23681717713924852</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>106</v>
       </c>
@@ -4679,8 +4807,12 @@
         <f>(Table2[[#This Row],[Div]]-N31)/N31</f>
         <v>6.0000000000000053E-2</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U32" s="40">
+        <f>Table2[[#This Row],[Div]]/Table2[[#This Row],[FCF]]</f>
+        <v>0.18991877687529862</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>107</v>
       </c>
@@ -4742,14 +4874,20 @@
         <f>(Table2[[#This Row],[Div]]-N32)/N32</f>
         <v>6.9182389937106833E-2</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U33" s="40">
+        <f>Table2[[#This Row],[Div]]/Table2[[#This Row],[FCF]]</f>
+        <v>0.15420899854862119</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C34" s="24"/>
       <c r="D34" s="20"/>
       <c r="E34" s="3"/>
       <c r="F34" s="25"/>
       <c r="G34" s="21"/>
-      <c r="H34" s="3"/>
+      <c r="H34" s="3">
+        <v>6.39</v>
+      </c>
       <c r="I34" s="25"/>
       <c r="J34" s="21"/>
       <c r="K34" s="3"/>
@@ -4766,7 +4904,7 @@
       </c>
       <c r="R34" s="31">
         <f>(Table2[[#This Row],[FCF]]-H33)/H33</f>
-        <v>-1</v>
+        <v>0.15928882438316405</v>
       </c>
       <c r="S34" s="31">
         <f>(Table2[[#This Row],[EPS]]-K33)/K33</f>
@@ -4775,6 +4913,10 @@
       <c r="T34" s="31">
         <f>(Table2[[#This Row],[Div]]-N33)/N33</f>
         <v>8.235294117647067E-2</v>
+      </c>
+      <c r="U34" s="40">
+        <f>Table2[[#This Row],[Div]]/Table2[[#This Row],[FCF]]</f>
+        <v>0.14397496087636935</v>
       </c>
     </row>
   </sheetData>
@@ -9755,7 +9897,7 @@
   </sheetPr>
   <dimension ref="B2:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
@@ -9779,20 +9921,20 @@
       <c r="E2" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -10115,18 +10257,18 @@
         <f>Table7[[#This Row],[Div]]/Table7[[#This Row],[PriceMedian]]</f>
         <v>8.6759610400240095E-3</v>
       </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12">
@@ -10244,26 +10386,26 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="D2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="K2" s="37" t="s">
+      <c r="H2" s="37"/>
+      <c r="K2" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="39"/>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
